--- a/medicine/Enfance/Sally_Nicholls/Sally_Nicholls.xlsx
+++ b/medicine/Enfance/Sally_Nicholls/Sally_Nicholls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sally Nicholls, née le 22 juin 1983 à Stockton-on-Tees, est une romancière britannique de littérature jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sally Nicholls est née et a grandi à Stockton-on-Tees. Elle a fréquenté la Great Ayton Friends' School jusqu'à sa fermeture et, par la suite, l'école Egglescliffe jusqu'en 2001.
 À la fin de l'école, elle a choisi de voyager autour du monde. Elle a atteint l'Australie et la Nouvelle-Zélande après une période de travail au Japon dans un hôpital de la Croix-Rouge.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 (en) Ways to live forever, 2008
@@ -584,9 +600,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Finaliste Médaille Carnegie 2019[1] pour Evelyn, May et Nell : pour un monde plus juste (Things A Bright Girl Can Do)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Finaliste Médaille Carnegie 2019 pour Evelyn, May et Nell : pour un monde plus juste (Things A Bright Girl Can Do)</t>
         </is>
       </c>
     </row>
